--- a/sigmaaie/modules/university-hr/doc/university-hr-pt.xlsx
+++ b/sigmaaie/modules/university-hr/doc/university-hr-pt.xlsx
@@ -12,7 +12,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ConceptScheme</t>
+  </si>
   <si>
     <t>vivo</t>
   </si>
@@ -23,16 +32,16 @@
     <t>rohpt</t>
   </si>
   <si>
+    <t>PT_UNIVERSITY_HR_PTPAS</t>
+  </si>
+  <si>
+    <t>PT_UNIVERSITY_HR_PTPAU</t>
+  </si>
+  <si>
     <t>PT_UNIVERSITY_HR_PTPC</t>
   </si>
   <si>
     <t>PT_UNIVERSITY_HR_PTPEM</t>
-  </si>
-  <si>
-    <t>PT_UNIVERSITY_HR_PTPAS</t>
-  </si>
-  <si>
-    <t>PT_UNIVERSITY_HR_PTPAU</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -530,45 +539,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2">
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3">
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4">
       <c r="B4" s="29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -576,22 +587,46 @@
     </row>
     <row r="5">
       <c r="B5" s="29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
+    <row r="6">
+      <c r="B6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
